--- a/Тесты Вход.xlsx
+++ b/Тесты Вход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Mail.ru логин: bloodmary2019@mail.ru, пароль: cocktail5995</t>
+  </si>
+  <si>
+    <t>Результаты</t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,11 +360,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,33 +426,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -685,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -694,44 +775,49 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="9"/>
+      <c r="G1" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="8"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="90.75" thickBot="1">
+      <c r="F2" s="14"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="90.75" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -747,11 +833,14 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="75.75" thickBot="1">
+      <c r="G3" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75.75" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -767,11 +856,14 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="75.75" thickBot="1">
+      <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75.75" thickBot="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -787,11 +879,14 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="90.75" thickBot="1">
+      <c r="G5" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="90.75" thickBot="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -807,11 +902,14 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="90.75" thickBot="1">
+      <c r="G6" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90.75" thickBot="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -827,9 +925,12 @@
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="255.75" thickBot="1">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="255.75" thickBot="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -845,11 +946,12 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="90.75" thickBot="1">
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="90.75" thickBot="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -865,9 +967,10 @@
       <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="90.75" thickBot="1">
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="90.75" thickBot="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -883,11 +986,12 @@
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="105.75" thickBot="1">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="105.75" thickBot="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -903,11 +1007,12 @@
       <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="105.75" thickBot="1">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="105.75" thickBot="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -923,11 +1028,12 @@
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="105.75" thickBot="1">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="105.75" thickBot="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -937,18 +1043,20 @@
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="G13" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
